--- a/PROYECTO CP/Revision PPS-IPS/PPS VUCEPERPAM-249 Agregar mercancía peligrosa al manifiesto de mercancías peligrosas_v2.0.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/PPS VUCEPERPAM-249 Agregar mercancía peligrosa al manifiesto de mercancías peligrosas_v2.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9646879-C0C2-45CA-B982-979292555E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C1CFD3-807D-4DB8-82DC-921C5ADBC3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VUCEPERAM-249" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VUCEPERAM-249'!$A$46:$CJ$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VUCEPERAM-249'!$A$46:$CJ$46</definedName>
     <definedName name="Estado_CP">#REF!</definedName>
     <definedName name="Metodos_Pruebas">#REF!</definedName>
     <definedName name="Requerimientos">#REF!</definedName>
@@ -1031,14 +1031,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">P1. Ingresar al sistema VUCE CP 2.0  (Link Certificación) con el rol autorizado
-P2. Ingresar al menú de opciones del sistema VUCE CP 2.0:  "Gestión de la Nave"
-P3. Ingresar a la subopcion "Gestión del DUE"
-P4. Clic en el botón "Mercancías Peligrosas"
-P5. Clic en otra vista del menú de VUCE CP 2.0
-</t>
-  </si>
-  <si>
     <t>R1. Se muestra la pantalla del sistema VUCE CP 2.0
 R2. Se muestra el módulo "Gestión de la Nave"
 R3. Se muestra la subopcion "Gestión del DUE"
@@ -1177,6 +1169,13 @@
 P3. Ingresar a la subopcion "Gestión del DUE"
 P4. Clic en el botón "Consultar DUE"</t>
   </si>
+  <si>
+    <t>P1. Ingresar al sistema VUCE CP 2.0  (Link Certificación) con el rol autorizado
+P2. Ingresar al menú de opciones del sistema VUCE CP 2.0:  "Gestión de la Nave"
+P3. Ingresar a la subopcion "Gestión del DUE"
+P4. Clic en el botón "Mercancías Peligrosas"
+P5. Clic en el botón "Volver"</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,7 +1282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1317,18 +1316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,7 +1799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2034,12 +2021,19 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,8 +2046,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2098,6 +2099,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2119,6 +2121,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,28 +2145,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18870,11 +18851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CJ306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE63" workbookViewId="0">
-      <selection activeCell="BF68" sqref="BF68:BO68"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AY64" sqref="AY64:BE64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18937,7 +18917,7 @@
     <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="145" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="53"/>
@@ -19024,7 +19004,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="146" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="64"/>
@@ -19065,15 +19045,15 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="147" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="56"/>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="147" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="56"/>
-      <c r="K8" s="138" t="s">
+      <c r="K8" s="148" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="88"/>
@@ -19095,8 +19075,8 @@
       <c r="AB8" s="88"/>
       <c r="AC8" s="88"/>
       <c r="AD8" s="88"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="137" t="s">
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="147" t="s">
         <v>5</v>
       </c>
       <c r="AG8" s="55"/>
@@ -19112,38 +19092,38 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
-      <c r="G9" s="129">
+      <c r="G9" s="138">
         <v>45538</v>
       </c>
       <c r="H9" s="56"/>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="139" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="55"/>
-      <c r="K9" s="131" t="s">
+      <c r="K9" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="132" t="s">
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="142" t="s">
         <v>8</v>
       </c>
       <c r="AG9" s="55"/>
@@ -19159,38 +19139,38 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
-      <c r="G10" s="129">
+      <c r="G10" s="138">
         <v>45586</v>
       </c>
       <c r="H10" s="56"/>
-      <c r="I10" s="130" t="s">
+      <c r="I10" s="139" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="55"/>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="132" t="s">
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="142" t="s">
         <v>11</v>
       </c>
       <c r="AG10" s="55"/>
@@ -19206,32 +19186,32 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
-      <c r="G11" s="133"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="133"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="55"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="134"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="144"/>
       <c r="AG11" s="55"/>
       <c r="AH11" s="55"/>
       <c r="AI11" s="55"/>
@@ -19316,15 +19296,15 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="129" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123" t="s">
+      <c r="G15" s="130"/>
+      <c r="H15" s="131" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="75"/>
@@ -19364,15 +19344,15 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="129" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="124" t="s">
+      <c r="G16" s="130"/>
+      <c r="H16" s="132" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="88"/>
@@ -19407,20 +19387,20 @@
       <c r="AL16" s="88"/>
       <c r="AM16" s="88"/>
       <c r="AN16" s="88"/>
-      <c r="AO16" s="106"/>
+      <c r="AO16" s="133"/>
       <c r="AP16" s="9"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="129" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="125" t="s">
+      <c r="G17" s="130"/>
+      <c r="H17" s="134" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="55"/>
@@ -19460,15 +19440,15 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="129" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
       <c r="F18" s="70"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="127"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -19506,15 +19486,15 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="135" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="128">
+      <c r="G19" s="130"/>
+      <c r="H19" s="137">
         <v>1</v>
       </c>
       <c r="I19" s="67"/>
@@ -19644,7 +19624,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="122" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="55"/>
@@ -19787,13 +19767,13 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="128" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="75"/>
       <c r="E27" s="94"/>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="123" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="75"/>
@@ -19834,13 +19814,13 @@
       <c r="AP27" s="13"/>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="119" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="55"/>
@@ -19881,13 +19861,13 @@
       <c r="AP28" s="13"/>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="118" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="111"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
       <c r="I29" s="55"/>
@@ -19926,13 +19906,13 @@
       <c r="AP29" s="13"/>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="118" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="56"/>
-      <c r="F30" s="111"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -19977,7 +19957,7 @@
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
-      <c r="F31" s="111"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -20022,7 +20002,7 @@
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="112"/>
+      <c r="F32" s="120"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -20489,7 +20469,7 @@
     </row>
     <row r="42" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="124" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="70"/>
@@ -20502,12 +20482,12 @@
       </c>
       <c r="I42" s="70"/>
       <c r="J42" s="72"/>
-      <c r="K42" s="117">
+      <c r="K42" s="125">
         <f>SUM(K39:M41)</f>
         <v>1</v>
       </c>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="127"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -20788,11 +20768,11 @@
       <c r="CG46" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="CH46" s="107" t="s">
+      <c r="CH46" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="CI46" s="108"/>
-      <c r="CJ46" s="109"/>
+      <c r="CI46" s="116"/>
+      <c r="CJ46" s="117"/>
     </row>
     <row r="47" spans="1:88" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="58" t="s">
@@ -20834,7 +20814,7 @@
       <c r="V47" s="55"/>
       <c r="W47" s="55"/>
       <c r="X47" s="56"/>
-      <c r="Y47" s="103" t="s">
+      <c r="Y47" s="108" t="s">
         <v>70</v>
       </c>
       <c r="Z47" s="55"/>
@@ -20856,7 +20836,7 @@
       <c r="AP47" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ47" s="113" t="s">
+      <c r="AQ47" s="121" t="s">
         <v>72</v>
       </c>
       <c r="AR47" s="55"/>
@@ -20875,18 +20855,18 @@
       <c r="BC47" s="55"/>
       <c r="BD47" s="55"/>
       <c r="BE47" s="56"/>
-      <c r="BF47" s="140" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG47" s="141"/>
-      <c r="BH47" s="141"/>
-      <c r="BI47" s="141"/>
-      <c r="BJ47" s="141"/>
-      <c r="BK47" s="141"/>
-      <c r="BL47" s="141"/>
-      <c r="BM47" s="141"/>
-      <c r="BN47" s="141"/>
-      <c r="BO47" s="142"/>
+      <c r="BF47" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="BG47" s="100"/>
+      <c r="BH47" s="100"/>
+      <c r="BI47" s="100"/>
+      <c r="BJ47" s="100"/>
+      <c r="BK47" s="100"/>
+      <c r="BL47" s="100"/>
+      <c r="BM47" s="100"/>
+      <c r="BN47" s="100"/>
+      <c r="BO47" s="101"/>
       <c r="BP47" s="98" t="s">
         <v>74</v>
       </c>
@@ -20913,7 +20893,7 @@
       <c r="CG47" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH47" s="102" t="s">
+      <c r="CH47" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI47" s="55"/>
@@ -20959,7 +20939,7 @@
       <c r="V48" s="55"/>
       <c r="W48" s="55"/>
       <c r="X48" s="56"/>
-      <c r="Y48" s="103" t="s">
+      <c r="Y48" s="108" t="s">
         <v>79</v>
       </c>
       <c r="Z48" s="55"/>
@@ -20981,7 +20961,7 @@
       <c r="AP48" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="103" t="s">
+      <c r="AQ48" s="108" t="s">
         <v>80</v>
       </c>
       <c r="AR48" s="55"/>
@@ -21000,18 +20980,18 @@
       <c r="BC48" s="55"/>
       <c r="BD48" s="55"/>
       <c r="BE48" s="56"/>
-      <c r="BF48" s="143" t="s">
+      <c r="BF48" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="BG48" s="144"/>
-      <c r="BH48" s="144"/>
-      <c r="BI48" s="144"/>
-      <c r="BJ48" s="144"/>
-      <c r="BK48" s="144"/>
-      <c r="BL48" s="144"/>
-      <c r="BM48" s="144"/>
-      <c r="BN48" s="144"/>
-      <c r="BO48" s="145"/>
+      <c r="BG48" s="113"/>
+      <c r="BH48" s="113"/>
+      <c r="BI48" s="113"/>
+      <c r="BJ48" s="113"/>
+      <c r="BK48" s="113"/>
+      <c r="BL48" s="113"/>
+      <c r="BM48" s="113"/>
+      <c r="BN48" s="113"/>
+      <c r="BO48" s="114"/>
       <c r="BP48" s="98" t="s">
         <v>82</v>
       </c>
@@ -21038,7 +21018,7 @@
       <c r="CG48" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH48" s="102" t="s">
+      <c r="CH48" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI48" s="55"/>
@@ -21084,7 +21064,7 @@
       <c r="V49" s="55"/>
       <c r="W49" s="55"/>
       <c r="X49" s="56"/>
-      <c r="Y49" s="103" t="s">
+      <c r="Y49" s="108" t="s">
         <v>85</v>
       </c>
       <c r="Z49" s="55"/>
@@ -21106,7 +21086,7 @@
       <c r="AP49" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ49" s="103" t="s">
+      <c r="AQ49" s="108" t="s">
         <v>86</v>
       </c>
       <c r="AR49" s="55"/>
@@ -21125,18 +21105,18 @@
       <c r="BC49" s="55"/>
       <c r="BD49" s="55"/>
       <c r="BE49" s="55"/>
-      <c r="BF49" s="146" t="s">
+      <c r="BF49" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="BG49" s="147"/>
-      <c r="BH49" s="147"/>
-      <c r="BI49" s="147"/>
-      <c r="BJ49" s="147"/>
-      <c r="BK49" s="147"/>
-      <c r="BL49" s="147"/>
-      <c r="BM49" s="147"/>
-      <c r="BN49" s="147"/>
-      <c r="BO49" s="147"/>
+      <c r="BG49" s="111"/>
+      <c r="BH49" s="111"/>
+      <c r="BI49" s="111"/>
+      <c r="BJ49" s="111"/>
+      <c r="BK49" s="111"/>
+      <c r="BL49" s="111"/>
+      <c r="BM49" s="111"/>
+      <c r="BN49" s="111"/>
+      <c r="BO49" s="111"/>
       <c r="BP49" s="98" t="s">
         <v>88</v>
       </c>
@@ -21163,7 +21143,7 @@
       <c r="CG49" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH49" s="102" t="s">
+      <c r="CH49" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI49" s="55"/>
@@ -21209,7 +21189,7 @@
       <c r="V50" s="55"/>
       <c r="W50" s="55"/>
       <c r="X50" s="56"/>
-      <c r="Y50" s="103" t="s">
+      <c r="Y50" s="108" t="s">
         <v>91</v>
       </c>
       <c r="Z50" s="55"/>
@@ -21231,7 +21211,7 @@
       <c r="AP50" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ50" s="103" t="s">
+      <c r="AQ50" s="108" t="s">
         <v>92</v>
       </c>
       <c r="AR50" s="55"/>
@@ -21250,18 +21230,18 @@
       <c r="BC50" s="55"/>
       <c r="BD50" s="55"/>
       <c r="BE50" s="56"/>
-      <c r="BF50" s="148" t="s">
+      <c r="BF50" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="BG50" s="149"/>
-      <c r="BH50" s="149"/>
-      <c r="BI50" s="149"/>
-      <c r="BJ50" s="149"/>
-      <c r="BK50" s="149"/>
-      <c r="BL50" s="149"/>
-      <c r="BM50" s="149"/>
-      <c r="BN50" s="149"/>
-      <c r="BO50" s="150"/>
+      <c r="BG50" s="104"/>
+      <c r="BH50" s="104"/>
+      <c r="BI50" s="104"/>
+      <c r="BJ50" s="104"/>
+      <c r="BK50" s="104"/>
+      <c r="BL50" s="104"/>
+      <c r="BM50" s="104"/>
+      <c r="BN50" s="104"/>
+      <c r="BO50" s="105"/>
       <c r="BP50" s="98" t="s">
         <v>88</v>
       </c>
@@ -21288,7 +21268,7 @@
       <c r="CG50" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH50" s="102" t="s">
+      <c r="CH50" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI50" s="55"/>
@@ -21334,7 +21314,7 @@
       <c r="V51" s="55"/>
       <c r="W51" s="55"/>
       <c r="X51" s="56"/>
-      <c r="Y51" s="103" t="s">
+      <c r="Y51" s="108" t="s">
         <v>95</v>
       </c>
       <c r="Z51" s="55"/>
@@ -21356,7 +21336,7 @@
       <c r="AP51" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ51" s="103" t="s">
+      <c r="AQ51" s="108" t="s">
         <v>96</v>
       </c>
       <c r="AR51" s="55"/>
@@ -21375,18 +21355,18 @@
       <c r="BC51" s="55"/>
       <c r="BD51" s="55"/>
       <c r="BE51" s="56"/>
-      <c r="BF51" s="140" t="s">
+      <c r="BF51" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="BG51" s="141"/>
-      <c r="BH51" s="141"/>
-      <c r="BI51" s="141"/>
-      <c r="BJ51" s="141"/>
-      <c r="BK51" s="141"/>
-      <c r="BL51" s="141"/>
-      <c r="BM51" s="141"/>
-      <c r="BN51" s="141"/>
-      <c r="BO51" s="142"/>
+      <c r="BG51" s="100"/>
+      <c r="BH51" s="100"/>
+      <c r="BI51" s="100"/>
+      <c r="BJ51" s="100"/>
+      <c r="BK51" s="100"/>
+      <c r="BL51" s="100"/>
+      <c r="BM51" s="100"/>
+      <c r="BN51" s="100"/>
+      <c r="BO51" s="101"/>
       <c r="BP51" s="98" t="s">
         <v>88</v>
       </c>
@@ -21413,7 +21393,7 @@
       <c r="CG51" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH51" s="102" t="s">
+      <c r="CH51" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI51" s="55"/>
@@ -21459,7 +21439,7 @@
       <c r="V52" s="55"/>
       <c r="W52" s="55"/>
       <c r="X52" s="56"/>
-      <c r="Y52" s="103" t="s">
+      <c r="Y52" s="108" t="s">
         <v>99</v>
       </c>
       <c r="Z52" s="55"/>
@@ -21481,7 +21461,7 @@
       <c r="AP52" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ52" s="103" t="s">
+      <c r="AQ52" s="108" t="s">
         <v>100</v>
       </c>
       <c r="AR52" s="55"/>
@@ -21500,18 +21480,18 @@
       <c r="BC52" s="55"/>
       <c r="BD52" s="55"/>
       <c r="BE52" s="56"/>
-      <c r="BF52" s="140" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG52" s="141"/>
-      <c r="BH52" s="141"/>
-      <c r="BI52" s="141"/>
-      <c r="BJ52" s="141"/>
-      <c r="BK52" s="141"/>
-      <c r="BL52" s="141"/>
-      <c r="BM52" s="141"/>
-      <c r="BN52" s="141"/>
-      <c r="BO52" s="142"/>
+      <c r="BF52" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG52" s="100"/>
+      <c r="BH52" s="100"/>
+      <c r="BI52" s="100"/>
+      <c r="BJ52" s="100"/>
+      <c r="BK52" s="100"/>
+      <c r="BL52" s="100"/>
+      <c r="BM52" s="100"/>
+      <c r="BN52" s="100"/>
+      <c r="BO52" s="101"/>
       <c r="BP52" s="98" t="s">
         <v>101</v>
       </c>
@@ -21538,7 +21518,7 @@
       <c r="CG52" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH52" s="102" t="s">
+      <c r="CH52" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI52" s="55"/>
@@ -21584,7 +21564,7 @@
       <c r="V53" s="55"/>
       <c r="W53" s="55"/>
       <c r="X53" s="56"/>
-      <c r="Y53" s="103" t="s">
+      <c r="Y53" s="108" t="s">
         <v>103</v>
       </c>
       <c r="Z53" s="55"/>
@@ -21606,7 +21586,7 @@
       <c r="AP53" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ53" s="103" t="s">
+      <c r="AQ53" s="108" t="s">
         <v>104</v>
       </c>
       <c r="AR53" s="55"/>
@@ -21625,18 +21605,18 @@
       <c r="BC53" s="55"/>
       <c r="BD53" s="55"/>
       <c r="BE53" s="56"/>
-      <c r="BF53" s="143" t="s">
+      <c r="BF53" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="BG53" s="144"/>
-      <c r="BH53" s="144"/>
-      <c r="BI53" s="144"/>
-      <c r="BJ53" s="144"/>
-      <c r="BK53" s="144"/>
-      <c r="BL53" s="144"/>
-      <c r="BM53" s="144"/>
-      <c r="BN53" s="144"/>
-      <c r="BO53" s="145"/>
+      <c r="BG53" s="113"/>
+      <c r="BH53" s="113"/>
+      <c r="BI53" s="113"/>
+      <c r="BJ53" s="113"/>
+      <c r="BK53" s="113"/>
+      <c r="BL53" s="113"/>
+      <c r="BM53" s="113"/>
+      <c r="BN53" s="113"/>
+      <c r="BO53" s="114"/>
       <c r="BP53" s="98" t="s">
         <v>106</v>
       </c>
@@ -21663,7 +21643,7 @@
       <c r="CG53" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH53" s="102" t="s">
+      <c r="CH53" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI53" s="55"/>
@@ -21709,7 +21689,7 @@
       <c r="V54" s="55"/>
       <c r="W54" s="55"/>
       <c r="X54" s="56"/>
-      <c r="Y54" s="103" t="s">
+      <c r="Y54" s="108" t="s">
         <v>109</v>
       </c>
       <c r="Z54" s="55"/>
@@ -21731,7 +21711,7 @@
       <c r="AP54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ54" s="103" t="s">
+      <c r="AQ54" s="108" t="s">
         <v>110</v>
       </c>
       <c r="AR54" s="55"/>
@@ -21750,18 +21730,18 @@
       <c r="BC54" s="55"/>
       <c r="BD54" s="55"/>
       <c r="BE54" s="55"/>
-      <c r="BF54" s="151" t="s">
+      <c r="BF54" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="BG54" s="147"/>
-      <c r="BH54" s="147"/>
-      <c r="BI54" s="147"/>
-      <c r="BJ54" s="147"/>
-      <c r="BK54" s="147"/>
-      <c r="BL54" s="147"/>
-      <c r="BM54" s="147"/>
-      <c r="BN54" s="147"/>
-      <c r="BO54" s="147"/>
+      <c r="BG54" s="111"/>
+      <c r="BH54" s="111"/>
+      <c r="BI54" s="111"/>
+      <c r="BJ54" s="111"/>
+      <c r="BK54" s="111"/>
+      <c r="BL54" s="111"/>
+      <c r="BM54" s="111"/>
+      <c r="BN54" s="111"/>
+      <c r="BO54" s="111"/>
       <c r="BP54" s="98" t="s">
         <v>112</v>
       </c>
@@ -21788,7 +21768,7 @@
       <c r="CG54" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH54" s="102" t="s">
+      <c r="CH54" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI54" s="55"/>
@@ -21834,7 +21814,7 @@
       <c r="V55" s="55"/>
       <c r="W55" s="55"/>
       <c r="X55" s="56"/>
-      <c r="Y55" s="103" t="s">
+      <c r="Y55" s="108" t="s">
         <v>115</v>
       </c>
       <c r="Z55" s="55"/>
@@ -21856,7 +21836,7 @@
       <c r="AP55" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ55" s="103" t="s">
+      <c r="AQ55" s="108" t="s">
         <v>116</v>
       </c>
       <c r="AR55" s="55"/>
@@ -21875,18 +21855,18 @@
       <c r="BC55" s="55"/>
       <c r="BD55" s="55"/>
       <c r="BE55" s="56"/>
-      <c r="BF55" s="148" t="s">
+      <c r="BF55" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="BG55" s="149"/>
-      <c r="BH55" s="149"/>
-      <c r="BI55" s="149"/>
-      <c r="BJ55" s="149"/>
-      <c r="BK55" s="149"/>
-      <c r="BL55" s="149"/>
-      <c r="BM55" s="149"/>
-      <c r="BN55" s="149"/>
-      <c r="BO55" s="150"/>
+      <c r="BG55" s="104"/>
+      <c r="BH55" s="104"/>
+      <c r="BI55" s="104"/>
+      <c r="BJ55" s="104"/>
+      <c r="BK55" s="104"/>
+      <c r="BL55" s="104"/>
+      <c r="BM55" s="104"/>
+      <c r="BN55" s="104"/>
+      <c r="BO55" s="105"/>
       <c r="BP55" s="98" t="s">
         <v>118</v>
       </c>
@@ -21913,7 +21893,7 @@
       <c r="CG55" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH55" s="102" t="s">
+      <c r="CH55" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI55" s="55"/>
@@ -21959,7 +21939,7 @@
       <c r="V56" s="97"/>
       <c r="W56" s="97"/>
       <c r="X56" s="60"/>
-      <c r="Y56" s="104" t="s">
+      <c r="Y56" s="109" t="s">
         <v>121</v>
       </c>
       <c r="Z56" s="97"/>
@@ -21981,7 +21961,7 @@
       <c r="AP56" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ56" s="103" t="s">
+      <c r="AQ56" s="108" t="s">
         <v>122</v>
       </c>
       <c r="AR56" s="55"/>
@@ -22000,18 +21980,18 @@
       <c r="BC56" s="97"/>
       <c r="BD56" s="97"/>
       <c r="BE56" s="60"/>
-      <c r="BF56" s="140" t="s">
+      <c r="BF56" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="BG56" s="141"/>
-      <c r="BH56" s="141"/>
-      <c r="BI56" s="141"/>
-      <c r="BJ56" s="141"/>
-      <c r="BK56" s="141"/>
-      <c r="BL56" s="141"/>
-      <c r="BM56" s="141"/>
-      <c r="BN56" s="141"/>
-      <c r="BO56" s="142"/>
+      <c r="BG56" s="100"/>
+      <c r="BH56" s="100"/>
+      <c r="BI56" s="100"/>
+      <c r="BJ56" s="100"/>
+      <c r="BK56" s="100"/>
+      <c r="BL56" s="100"/>
+      <c r="BM56" s="100"/>
+      <c r="BN56" s="100"/>
+      <c r="BO56" s="101"/>
       <c r="BP56" s="98" t="s">
         <v>124</v>
       </c>
@@ -22038,13 +22018,13 @@
       <c r="CG56" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH56" s="102" t="s">
+      <c r="CH56" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI56" s="55"/>
       <c r="CJ56" s="56"/>
     </row>
-    <row r="57" spans="2:88" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:88" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="58" t="s">
         <v>125</v>
       </c>
@@ -22084,7 +22064,7 @@
       <c r="V57" s="97"/>
       <c r="W57" s="97"/>
       <c r="X57" s="60"/>
-      <c r="Y57" s="103" t="s">
+      <c r="Y57" s="108" t="s">
         <v>127</v>
       </c>
       <c r="Z57" s="55"/>
@@ -22106,7 +22086,7 @@
       <c r="AP57" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ57" s="103" t="s">
+      <c r="AQ57" s="108" t="s">
         <v>128</v>
       </c>
       <c r="AR57" s="55"/>
@@ -22125,7 +22105,7 @@
       <c r="BC57" s="55"/>
       <c r="BD57" s="55"/>
       <c r="BE57" s="56"/>
-      <c r="BF57" s="101" t="s">
+      <c r="BF57" s="106" t="s">
         <v>123</v>
       </c>
       <c r="BG57" s="97"/>
@@ -22163,13 +22143,13 @@
       <c r="CG57" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH57" s="102" t="s">
+      <c r="CH57" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI57" s="55"/>
       <c r="CJ57" s="56"/>
     </row>
-    <row r="58" spans="2:88" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:88" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="58" t="s">
         <v>130</v>
       </c>
@@ -22209,7 +22189,7 @@
       <c r="V58" s="97"/>
       <c r="W58" s="97"/>
       <c r="X58" s="60"/>
-      <c r="Y58" s="103" t="s">
+      <c r="Y58" s="108" t="s">
         <v>132</v>
       </c>
       <c r="Z58" s="55"/>
@@ -22231,7 +22211,7 @@
       <c r="AP58" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ58" s="103" t="s">
+      <c r="AQ58" s="108" t="s">
         <v>133</v>
       </c>
       <c r="AR58" s="55"/>
@@ -22250,7 +22230,7 @@
       <c r="BC58" s="55"/>
       <c r="BD58" s="55"/>
       <c r="BE58" s="56"/>
-      <c r="BF58" s="101" t="s">
+      <c r="BF58" s="106" t="s">
         <v>123</v>
       </c>
       <c r="BG58" s="97"/>
@@ -22288,7 +22268,7 @@
       <c r="CG58" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH58" s="102" t="s">
+      <c r="CH58" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI58" s="55"/>
@@ -22334,7 +22314,7 @@
       <c r="V59" s="97"/>
       <c r="W59" s="97"/>
       <c r="X59" s="60"/>
-      <c r="Y59" s="104" t="s">
+      <c r="Y59" s="109" t="s">
         <v>136</v>
       </c>
       <c r="Z59" s="97"/>
@@ -22356,7 +22336,7 @@
       <c r="AP59" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ59" s="103" t="s">
+      <c r="AQ59" s="108" t="s">
         <v>122</v>
       </c>
       <c r="AR59" s="55"/>
@@ -22375,18 +22355,18 @@
       <c r="BC59" s="97"/>
       <c r="BD59" s="97"/>
       <c r="BE59" s="60"/>
-      <c r="BF59" s="140" t="s">
+      <c r="BF59" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="BG59" s="141"/>
-      <c r="BH59" s="141"/>
-      <c r="BI59" s="141"/>
-      <c r="BJ59" s="141"/>
-      <c r="BK59" s="141"/>
-      <c r="BL59" s="141"/>
-      <c r="BM59" s="141"/>
-      <c r="BN59" s="141"/>
-      <c r="BO59" s="142"/>
+      <c r="BG59" s="100"/>
+      <c r="BH59" s="100"/>
+      <c r="BI59" s="100"/>
+      <c r="BJ59" s="100"/>
+      <c r="BK59" s="100"/>
+      <c r="BL59" s="100"/>
+      <c r="BM59" s="100"/>
+      <c r="BN59" s="100"/>
+      <c r="BO59" s="101"/>
       <c r="BP59" s="98" t="s">
         <v>138</v>
       </c>
@@ -22413,7 +22393,7 @@
       <c r="CG59" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH59" s="102" t="s">
+      <c r="CH59" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI59" s="55"/>
@@ -22459,7 +22439,7 @@
       <c r="V60" s="97"/>
       <c r="W60" s="97"/>
       <c r="X60" s="60"/>
-      <c r="Y60" s="103" t="s">
+      <c r="Y60" s="108" t="s">
         <v>141</v>
       </c>
       <c r="Z60" s="55"/>
@@ -22481,7 +22461,7 @@
       <c r="AP60" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ60" s="103" t="s">
+      <c r="AQ60" s="108" t="s">
         <v>142</v>
       </c>
       <c r="AR60" s="55"/>
@@ -22500,18 +22480,18 @@
       <c r="BC60" s="55"/>
       <c r="BD60" s="55"/>
       <c r="BE60" s="56"/>
-      <c r="BF60" s="140" t="s">
+      <c r="BF60" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="BG60" s="141"/>
-      <c r="BH60" s="141"/>
-      <c r="BI60" s="141"/>
-      <c r="BJ60" s="141"/>
-      <c r="BK60" s="141"/>
-      <c r="BL60" s="141"/>
-      <c r="BM60" s="141"/>
-      <c r="BN60" s="141"/>
-      <c r="BO60" s="142"/>
+      <c r="BG60" s="100"/>
+      <c r="BH60" s="100"/>
+      <c r="BI60" s="100"/>
+      <c r="BJ60" s="100"/>
+      <c r="BK60" s="100"/>
+      <c r="BL60" s="100"/>
+      <c r="BM60" s="100"/>
+      <c r="BN60" s="100"/>
+      <c r="BO60" s="101"/>
       <c r="BP60" s="98" t="s">
         <v>138</v>
       </c>
@@ -22538,7 +22518,7 @@
       <c r="CG60" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH60" s="102" t="s">
+      <c r="CH60" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI60" s="55"/>
@@ -22584,7 +22564,7 @@
       <c r="V61" s="97"/>
       <c r="W61" s="97"/>
       <c r="X61" s="60"/>
-      <c r="Y61" s="103" t="s">
+      <c r="Y61" s="108" t="s">
         <v>145</v>
       </c>
       <c r="Z61" s="55"/>
@@ -22606,7 +22586,7 @@
       <c r="AP61" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ61" s="103" t="s">
+      <c r="AQ61" s="108" t="s">
         <v>146</v>
       </c>
       <c r="AR61" s="55"/>
@@ -22625,18 +22605,18 @@
       <c r="BC61" s="55"/>
       <c r="BD61" s="55"/>
       <c r="BE61" s="56"/>
-      <c r="BF61" s="140" t="s">
+      <c r="BF61" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="BG61" s="141"/>
-      <c r="BH61" s="141"/>
-      <c r="BI61" s="141"/>
-      <c r="BJ61" s="141"/>
-      <c r="BK61" s="141"/>
-      <c r="BL61" s="141"/>
-      <c r="BM61" s="141"/>
-      <c r="BN61" s="141"/>
-      <c r="BO61" s="142"/>
+      <c r="BG61" s="100"/>
+      <c r="BH61" s="100"/>
+      <c r="BI61" s="100"/>
+      <c r="BJ61" s="100"/>
+      <c r="BK61" s="100"/>
+      <c r="BL61" s="100"/>
+      <c r="BM61" s="100"/>
+      <c r="BN61" s="100"/>
+      <c r="BO61" s="101"/>
       <c r="BP61" s="98" t="s">
         <v>138</v>
       </c>
@@ -22663,7 +22643,7 @@
       <c r="CG61" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH61" s="102" t="s">
+      <c r="CH61" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI61" s="55"/>
@@ -22709,7 +22689,7 @@
       <c r="V62" s="97"/>
       <c r="W62" s="97"/>
       <c r="X62" s="60"/>
-      <c r="Y62" s="104" t="s">
+      <c r="Y62" s="109" t="s">
         <v>149</v>
       </c>
       <c r="Z62" s="97"/>
@@ -22731,7 +22711,7 @@
       <c r="AP62" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ62" s="103" t="s">
+      <c r="AQ62" s="108" t="s">
         <v>150</v>
       </c>
       <c r="AR62" s="55"/>
@@ -22750,18 +22730,18 @@
       <c r="BC62" s="97"/>
       <c r="BD62" s="97"/>
       <c r="BE62" s="60"/>
-      <c r="BF62" s="140" t="s">
+      <c r="BF62" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="BG62" s="141"/>
-      <c r="BH62" s="141"/>
-      <c r="BI62" s="141"/>
-      <c r="BJ62" s="141"/>
-      <c r="BK62" s="141"/>
-      <c r="BL62" s="141"/>
-      <c r="BM62" s="141"/>
-      <c r="BN62" s="141"/>
-      <c r="BO62" s="142"/>
+      <c r="BG62" s="100"/>
+      <c r="BH62" s="100"/>
+      <c r="BI62" s="100"/>
+      <c r="BJ62" s="100"/>
+      <c r="BK62" s="100"/>
+      <c r="BL62" s="100"/>
+      <c r="BM62" s="100"/>
+      <c r="BN62" s="100"/>
+      <c r="BO62" s="101"/>
       <c r="BP62" s="98" t="s">
         <v>152</v>
       </c>
@@ -22788,7 +22768,7 @@
       <c r="CG62" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH62" s="102" t="s">
+      <c r="CH62" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI62" s="55"/>
@@ -22834,7 +22814,7 @@
       <c r="V63" s="55"/>
       <c r="W63" s="55"/>
       <c r="X63" s="56"/>
-      <c r="Y63" s="103" t="s">
+      <c r="Y63" s="108" t="s">
         <v>155</v>
       </c>
       <c r="Z63" s="55"/>
@@ -22856,7 +22836,7 @@
       <c r="AP63" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ63" s="103" t="s">
+      <c r="AQ63" s="108" t="s">
         <v>156</v>
       </c>
       <c r="AR63" s="55"/>
@@ -22875,18 +22855,18 @@
       <c r="BC63" s="55"/>
       <c r="BD63" s="55"/>
       <c r="BE63" s="56"/>
-      <c r="BF63" s="140" t="s">
+      <c r="BF63" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG63" s="141"/>
-      <c r="BH63" s="141"/>
-      <c r="BI63" s="141"/>
-      <c r="BJ63" s="141"/>
-      <c r="BK63" s="141"/>
-      <c r="BL63" s="141"/>
-      <c r="BM63" s="141"/>
-      <c r="BN63" s="141"/>
-      <c r="BO63" s="142"/>
+      <c r="BG63" s="100"/>
+      <c r="BH63" s="100"/>
+      <c r="BI63" s="100"/>
+      <c r="BJ63" s="100"/>
+      <c r="BK63" s="100"/>
+      <c r="BL63" s="100"/>
+      <c r="BM63" s="100"/>
+      <c r="BN63" s="100"/>
+      <c r="BO63" s="101"/>
       <c r="BP63" s="98" t="s">
         <v>158</v>
       </c>
@@ -22913,13 +22893,13 @@
       <c r="CG63" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH63" s="102" t="s">
+      <c r="CH63" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI63" s="55"/>
       <c r="CJ63" s="56"/>
     </row>
-    <row r="64" spans="2:88" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:88" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="58" t="s">
         <v>159</v>
       </c>
@@ -22959,7 +22939,7 @@
       <c r="V64" s="55"/>
       <c r="W64" s="55"/>
       <c r="X64" s="56"/>
-      <c r="Y64" s="103" t="s">
+      <c r="Y64" s="108" t="s">
         <v>161</v>
       </c>
       <c r="Z64" s="55"/>
@@ -22981,7 +22961,7 @@
       <c r="AP64" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ64" s="103" t="s">
+      <c r="AQ64" s="108" t="s">
         <v>162</v>
       </c>
       <c r="AR64" s="55"/>
@@ -23000,7 +22980,7 @@
       <c r="BC64" s="55"/>
       <c r="BD64" s="55"/>
       <c r="BE64" s="56"/>
-      <c r="BF64" s="101" t="s">
+      <c r="BF64" s="106" t="s">
         <v>157</v>
       </c>
       <c r="BG64" s="55"/>
@@ -23038,7 +23018,7 @@
       <c r="CG64" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH64" s="102" t="s">
+      <c r="CH64" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI64" s="55"/>
@@ -23084,7 +23064,7 @@
       <c r="V65" s="55"/>
       <c r="W65" s="55"/>
       <c r="X65" s="56"/>
-      <c r="Y65" s="103" t="s">
+      <c r="Y65" s="108" t="s">
         <v>165</v>
       </c>
       <c r="Z65" s="55"/>
@@ -23106,7 +23086,7 @@
       <c r="AP65" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ65" s="103" t="s">
+      <c r="AQ65" s="108" t="s">
         <v>166</v>
       </c>
       <c r="AR65" s="55"/>
@@ -23125,18 +23105,18 @@
       <c r="BC65" s="55"/>
       <c r="BD65" s="55"/>
       <c r="BE65" s="56"/>
-      <c r="BF65" s="140" t="s">
+      <c r="BF65" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG65" s="141"/>
-      <c r="BH65" s="141"/>
-      <c r="BI65" s="141"/>
-      <c r="BJ65" s="141"/>
-      <c r="BK65" s="141"/>
-      <c r="BL65" s="141"/>
-      <c r="BM65" s="141"/>
-      <c r="BN65" s="141"/>
-      <c r="BO65" s="142"/>
+      <c r="BG65" s="100"/>
+      <c r="BH65" s="100"/>
+      <c r="BI65" s="100"/>
+      <c r="BJ65" s="100"/>
+      <c r="BK65" s="100"/>
+      <c r="BL65" s="100"/>
+      <c r="BM65" s="100"/>
+      <c r="BN65" s="100"/>
+      <c r="BO65" s="101"/>
       <c r="BP65" s="98" t="s">
         <v>158</v>
       </c>
@@ -23163,13 +23143,13 @@
       <c r="CG65" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH65" s="102" t="s">
+      <c r="CH65" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI65" s="55"/>
       <c r="CJ65" s="56"/>
     </row>
-    <row r="66" spans="2:88" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:88" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="58" t="s">
         <v>167</v>
       </c>
@@ -23209,7 +23189,7 @@
       <c r="V66" s="55"/>
       <c r="W66" s="55"/>
       <c r="X66" s="56"/>
-      <c r="Y66" s="103" t="s">
+      <c r="Y66" s="108" t="s">
         <v>169</v>
       </c>
       <c r="Z66" s="55"/>
@@ -23231,7 +23211,7 @@
       <c r="AP66" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ66" s="103" t="s">
+      <c r="AQ66" s="108" t="s">
         <v>170</v>
       </c>
       <c r="AR66" s="55"/>
@@ -23250,7 +23230,7 @@
       <c r="BC66" s="55"/>
       <c r="BD66" s="55"/>
       <c r="BE66" s="56"/>
-      <c r="BF66" s="101" t="s">
+      <c r="BF66" s="106" t="s">
         <v>157</v>
       </c>
       <c r="BG66" s="55"/>
@@ -23288,7 +23268,7 @@
       <c r="CG66" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH66" s="102" t="s">
+      <c r="CH66" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI66" s="55"/>
@@ -23334,7 +23314,7 @@
       <c r="V67" s="55"/>
       <c r="W67" s="55"/>
       <c r="X67" s="56"/>
-      <c r="Y67" s="103" t="s">
+      <c r="Y67" s="108" t="s">
         <v>173</v>
       </c>
       <c r="Z67" s="55"/>
@@ -23356,7 +23336,7 @@
       <c r="AP67" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ67" s="103" t="s">
+      <c r="AQ67" s="108" t="s">
         <v>174</v>
       </c>
       <c r="AR67" s="55"/>
@@ -23375,18 +23355,18 @@
       <c r="BC67" s="55"/>
       <c r="BD67" s="55"/>
       <c r="BE67" s="56"/>
-      <c r="BF67" s="140" t="s">
+      <c r="BF67" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG67" s="141"/>
-      <c r="BH67" s="141"/>
-      <c r="BI67" s="141"/>
-      <c r="BJ67" s="141"/>
-      <c r="BK67" s="141"/>
-      <c r="BL67" s="141"/>
-      <c r="BM67" s="141"/>
-      <c r="BN67" s="141"/>
-      <c r="BO67" s="142"/>
+      <c r="BG67" s="100"/>
+      <c r="BH67" s="100"/>
+      <c r="BI67" s="100"/>
+      <c r="BJ67" s="100"/>
+      <c r="BK67" s="100"/>
+      <c r="BL67" s="100"/>
+      <c r="BM67" s="100"/>
+      <c r="BN67" s="100"/>
+      <c r="BO67" s="101"/>
       <c r="BP67" s="98" t="s">
         <v>175</v>
       </c>
@@ -23413,7 +23393,7 @@
       <c r="CG67" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH67" s="102" t="s">
+      <c r="CH67" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI67" s="55"/>
@@ -23459,7 +23439,7 @@
       <c r="V68" s="55"/>
       <c r="W68" s="55"/>
       <c r="X68" s="56"/>
-      <c r="Y68" s="103" t="s">
+      <c r="Y68" s="108" t="s">
         <v>178</v>
       </c>
       <c r="Z68" s="55"/>
@@ -23481,7 +23461,7 @@
       <c r="AP68" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ68" s="103" t="s">
+      <c r="AQ68" s="108" t="s">
         <v>174</v>
       </c>
       <c r="AR68" s="55"/>
@@ -23500,18 +23480,18 @@
       <c r="BC68" s="55"/>
       <c r="BD68" s="55"/>
       <c r="BE68" s="56"/>
-      <c r="BF68" s="101" t="s">
+      <c r="BF68" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG68" s="55"/>
-      <c r="BH68" s="55"/>
-      <c r="BI68" s="55"/>
-      <c r="BJ68" s="55"/>
-      <c r="BK68" s="55"/>
-      <c r="BL68" s="55"/>
-      <c r="BM68" s="55"/>
-      <c r="BN68" s="55"/>
-      <c r="BO68" s="56"/>
+      <c r="BG68" s="100"/>
+      <c r="BH68" s="100"/>
+      <c r="BI68" s="100"/>
+      <c r="BJ68" s="100"/>
+      <c r="BK68" s="100"/>
+      <c r="BL68" s="100"/>
+      <c r="BM68" s="100"/>
+      <c r="BN68" s="100"/>
+      <c r="BO68" s="101"/>
       <c r="BP68" s="98" t="s">
         <v>175</v>
       </c>
@@ -23538,7 +23518,7 @@
       <c r="CG68" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH68" s="102" t="s">
+      <c r="CH68" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI68" s="55"/>
@@ -23584,7 +23564,7 @@
       <c r="V69" s="55"/>
       <c r="W69" s="55"/>
       <c r="X69" s="56"/>
-      <c r="Y69" s="103" t="s">
+      <c r="Y69" s="108" t="s">
         <v>181</v>
       </c>
       <c r="Z69" s="55"/>
@@ -23606,7 +23586,7 @@
       <c r="AP69" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ69" s="103" t="s">
+      <c r="AQ69" s="108" t="s">
         <v>174</v>
       </c>
       <c r="AR69" s="55"/>
@@ -23625,18 +23605,18 @@
       <c r="BC69" s="55"/>
       <c r="BD69" s="55"/>
       <c r="BE69" s="56"/>
-      <c r="BF69" s="101" t="s">
+      <c r="BF69" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG69" s="55"/>
-      <c r="BH69" s="55"/>
-      <c r="BI69" s="55"/>
-      <c r="BJ69" s="55"/>
-      <c r="BK69" s="55"/>
-      <c r="BL69" s="55"/>
-      <c r="BM69" s="55"/>
-      <c r="BN69" s="55"/>
-      <c r="BO69" s="56"/>
+      <c r="BG69" s="100"/>
+      <c r="BH69" s="100"/>
+      <c r="BI69" s="100"/>
+      <c r="BJ69" s="100"/>
+      <c r="BK69" s="100"/>
+      <c r="BL69" s="100"/>
+      <c r="BM69" s="100"/>
+      <c r="BN69" s="100"/>
+      <c r="BO69" s="101"/>
       <c r="BP69" s="98" t="s">
         <v>182</v>
       </c>
@@ -23663,13 +23643,13 @@
       <c r="CG69" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH69" s="102" t="s">
+      <c r="CH69" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI69" s="55"/>
       <c r="CJ69" s="56"/>
     </row>
-    <row r="70" spans="2:88" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:88" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="58" t="s">
         <v>183</v>
       </c>
@@ -23709,7 +23689,7 @@
       <c r="V70" s="55"/>
       <c r="W70" s="55"/>
       <c r="X70" s="56"/>
-      <c r="Y70" s="103" t="s">
+      <c r="Y70" s="108" t="s">
         <v>185</v>
       </c>
       <c r="Z70" s="55"/>
@@ -23731,7 +23711,7 @@
       <c r="AP70" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ70" s="103" t="s">
+      <c r="AQ70" s="108" t="s">
         <v>186</v>
       </c>
       <c r="AR70" s="55"/>
@@ -23750,7 +23730,7 @@
       <c r="BC70" s="55"/>
       <c r="BD70" s="55"/>
       <c r="BE70" s="56"/>
-      <c r="BF70" s="101" t="s">
+      <c r="BF70" s="106" t="s">
         <v>157</v>
       </c>
       <c r="BG70" s="55"/>
@@ -23788,7 +23768,7 @@
       <c r="CG70" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH70" s="102" t="s">
+      <c r="CH70" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI70" s="55"/>
@@ -23834,7 +23814,7 @@
       <c r="V71" s="55"/>
       <c r="W71" s="55"/>
       <c r="X71" s="56"/>
-      <c r="Y71" s="103" t="s">
+      <c r="Y71" s="108" t="s">
         <v>189</v>
       </c>
       <c r="Z71" s="55"/>
@@ -23856,7 +23836,7 @@
       <c r="AP71" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ71" s="103" t="s">
+      <c r="AQ71" s="108" t="s">
         <v>190</v>
       </c>
       <c r="AR71" s="55"/>
@@ -23875,18 +23855,18 @@
       <c r="BC71" s="55"/>
       <c r="BD71" s="55"/>
       <c r="BE71" s="56"/>
-      <c r="BF71" s="101" t="s">
+      <c r="BF71" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="BG71" s="55"/>
-      <c r="BH71" s="55"/>
-      <c r="BI71" s="55"/>
-      <c r="BJ71" s="55"/>
-      <c r="BK71" s="55"/>
-      <c r="BL71" s="55"/>
-      <c r="BM71" s="55"/>
-      <c r="BN71" s="55"/>
-      <c r="BO71" s="56"/>
+      <c r="BG71" s="100"/>
+      <c r="BH71" s="100"/>
+      <c r="BI71" s="100"/>
+      <c r="BJ71" s="100"/>
+      <c r="BK71" s="100"/>
+      <c r="BL71" s="100"/>
+      <c r="BM71" s="100"/>
+      <c r="BN71" s="100"/>
+      <c r="BO71" s="101"/>
       <c r="BP71" s="98" t="s">
         <v>192</v>
       </c>
@@ -23913,7 +23893,7 @@
       <c r="CG71" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH71" s="102" t="s">
+      <c r="CH71" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI71" s="55"/>
@@ -23959,7 +23939,7 @@
       <c r="V72" s="55"/>
       <c r="W72" s="55"/>
       <c r="X72" s="56"/>
-      <c r="Y72" s="103" t="s">
+      <c r="Y72" s="108" t="s">
         <v>195</v>
       </c>
       <c r="Z72" s="55"/>
@@ -23981,7 +23961,7 @@
       <c r="AP72" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ72" s="103" t="s">
+      <c r="AQ72" s="108" t="s">
         <v>196</v>
       </c>
       <c r="AR72" s="55"/>
@@ -24000,18 +23980,18 @@
       <c r="BC72" s="55"/>
       <c r="BD72" s="55"/>
       <c r="BE72" s="56"/>
-      <c r="BF72" s="101" t="s">
+      <c r="BF72" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="BG72" s="55"/>
-      <c r="BH72" s="55"/>
-      <c r="BI72" s="55"/>
-      <c r="BJ72" s="55"/>
-      <c r="BK72" s="55"/>
-      <c r="BL72" s="55"/>
-      <c r="BM72" s="55"/>
-      <c r="BN72" s="55"/>
-      <c r="BO72" s="56"/>
+      <c r="BG72" s="100"/>
+      <c r="BH72" s="100"/>
+      <c r="BI72" s="100"/>
+      <c r="BJ72" s="100"/>
+      <c r="BK72" s="100"/>
+      <c r="BL72" s="100"/>
+      <c r="BM72" s="100"/>
+      <c r="BN72" s="100"/>
+      <c r="BO72" s="101"/>
       <c r="BP72" s="98" t="s">
         <v>192</v>
       </c>
@@ -24038,13 +24018,13 @@
       <c r="CG72" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH72" s="102" t="s">
+      <c r="CH72" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI72" s="55"/>
       <c r="CJ72" s="56"/>
     </row>
-    <row r="73" spans="2:88" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:88" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="58" t="s">
         <v>197</v>
       </c>
@@ -24084,7 +24064,7 @@
       <c r="V73" s="55"/>
       <c r="W73" s="55"/>
       <c r="X73" s="56"/>
-      <c r="Y73" s="103" t="s">
+      <c r="Y73" s="108" t="s">
         <v>199</v>
       </c>
       <c r="Z73" s="55"/>
@@ -24106,7 +24086,7 @@
       <c r="AP73" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ73" s="103" t="s">
+      <c r="AQ73" s="108" t="s">
         <v>200</v>
       </c>
       <c r="AR73" s="55"/>
@@ -24125,7 +24105,7 @@
       <c r="BC73" s="55"/>
       <c r="BD73" s="55"/>
       <c r="BE73" s="56"/>
-      <c r="BF73" s="101" t="s">
+      <c r="BF73" s="106" t="s">
         <v>191</v>
       </c>
       <c r="BG73" s="55"/>
@@ -24163,13 +24143,13 @@
       <c r="CG73" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH73" s="102" t="s">
+      <c r="CH73" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI73" s="55"/>
       <c r="CJ73" s="56"/>
     </row>
-    <row r="74" spans="2:88" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:88" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="58" t="s">
         <v>201</v>
       </c>
@@ -24209,7 +24189,7 @@
       <c r="V74" s="55"/>
       <c r="W74" s="55"/>
       <c r="X74" s="56"/>
-      <c r="Y74" s="103" t="s">
+      <c r="Y74" s="108" t="s">
         <v>203</v>
       </c>
       <c r="Z74" s="55"/>
@@ -24231,7 +24211,7 @@
       <c r="AP74" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ74" s="103" t="s">
+      <c r="AQ74" s="108" t="s">
         <v>204</v>
       </c>
       <c r="AR74" s="55"/>
@@ -24250,7 +24230,7 @@
       <c r="BC74" s="55"/>
       <c r="BD74" s="55"/>
       <c r="BE74" s="56"/>
-      <c r="BF74" s="101" t="s">
+      <c r="BF74" s="106" t="s">
         <v>191</v>
       </c>
       <c r="BG74" s="55"/>
@@ -24288,7 +24268,7 @@
       <c r="CG74" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH74" s="102" t="s">
+      <c r="CH74" s="107" t="s">
         <v>129</v>
       </c>
       <c r="CI74" s="55"/>
@@ -24334,7 +24314,7 @@
       <c r="V75" s="55"/>
       <c r="W75" s="55"/>
       <c r="X75" s="56"/>
-      <c r="Y75" s="103" t="s">
+      <c r="Y75" s="108" t="s">
         <v>207</v>
       </c>
       <c r="Z75" s="55"/>
@@ -24356,7 +24336,7 @@
       <c r="AP75" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ75" s="103" t="s">
+      <c r="AQ75" s="108" t="s">
         <v>208</v>
       </c>
       <c r="AR75" s="55"/>
@@ -24375,18 +24355,18 @@
       <c r="BC75" s="55"/>
       <c r="BD75" s="55"/>
       <c r="BE75" s="56"/>
-      <c r="BF75" s="101" t="s">
+      <c r="BF75" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="BG75" s="55"/>
-      <c r="BH75" s="55"/>
-      <c r="BI75" s="55"/>
-      <c r="BJ75" s="55"/>
-      <c r="BK75" s="55"/>
-      <c r="BL75" s="55"/>
-      <c r="BM75" s="55"/>
-      <c r="BN75" s="55"/>
-      <c r="BO75" s="56"/>
+      <c r="BG75" s="100"/>
+      <c r="BH75" s="100"/>
+      <c r="BI75" s="100"/>
+      <c r="BJ75" s="100"/>
+      <c r="BK75" s="100"/>
+      <c r="BL75" s="100"/>
+      <c r="BM75" s="100"/>
+      <c r="BN75" s="100"/>
+      <c r="BO75" s="101"/>
       <c r="BP75" s="98" t="s">
         <v>209</v>
       </c>
@@ -24413,7 +24393,7 @@
       <c r="CG75" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH75" s="102" t="s">
+      <c r="CH75" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI75" s="55"/>
@@ -24459,7 +24439,7 @@
       <c r="V76" s="55"/>
       <c r="W76" s="55"/>
       <c r="X76" s="56"/>
-      <c r="Y76" s="103" t="s">
+      <c r="Y76" s="108" t="s">
         <v>212</v>
       </c>
       <c r="Z76" s="55"/>
@@ -24481,7 +24461,7 @@
       <c r="AP76" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AQ76" s="103" t="s">
+      <c r="AQ76" s="108" t="s">
         <v>213</v>
       </c>
       <c r="AR76" s="55"/>
@@ -24500,18 +24480,18 @@
       <c r="BC76" s="55"/>
       <c r="BD76" s="55"/>
       <c r="BE76" s="56"/>
-      <c r="BF76" s="101" t="s">
+      <c r="BF76" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG76" s="55"/>
-      <c r="BH76" s="55"/>
-      <c r="BI76" s="55"/>
-      <c r="BJ76" s="55"/>
-      <c r="BK76" s="55"/>
-      <c r="BL76" s="55"/>
-      <c r="BM76" s="55"/>
-      <c r="BN76" s="55"/>
-      <c r="BO76" s="56"/>
+      <c r="BG76" s="100"/>
+      <c r="BH76" s="100"/>
+      <c r="BI76" s="100"/>
+      <c r="BJ76" s="100"/>
+      <c r="BK76" s="100"/>
+      <c r="BL76" s="100"/>
+      <c r="BM76" s="100"/>
+      <c r="BN76" s="100"/>
+      <c r="BO76" s="101"/>
       <c r="BP76" s="98" t="s">
         <v>214</v>
       </c>
@@ -24538,7 +24518,7 @@
       <c r="CG76" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CH76" s="102" t="s">
+      <c r="CH76" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI76" s="55"/>
@@ -24576,7 +24556,7 @@
         <v>3</v>
       </c>
       <c r="R77" s="60"/>
-      <c r="S77" s="104" t="s">
+      <c r="S77" s="109" t="s">
         <v>216</v>
       </c>
       <c r="T77" s="97"/>
@@ -24584,7 +24564,7 @@
       <c r="V77" s="97"/>
       <c r="W77" s="97"/>
       <c r="X77" s="60"/>
-      <c r="Y77" s="104" t="s">
+      <c r="Y77" s="109" t="s">
         <v>217</v>
       </c>
       <c r="Z77" s="97"/>
@@ -24606,7 +24586,7 @@
       <c r="AP77" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ77" s="104" t="s">
+      <c r="AQ77" s="109" t="s">
         <v>218</v>
       </c>
       <c r="AR77" s="97"/>
@@ -24628,15 +24608,15 @@
       <c r="BF77" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG77" s="97"/>
-      <c r="BH77" s="97"/>
-      <c r="BI77" s="97"/>
-      <c r="BJ77" s="97"/>
-      <c r="BK77" s="97"/>
-      <c r="BL77" s="97"/>
-      <c r="BM77" s="97"/>
-      <c r="BN77" s="97"/>
-      <c r="BO77" s="60"/>
+      <c r="BG77" s="100"/>
+      <c r="BH77" s="100"/>
+      <c r="BI77" s="100"/>
+      <c r="BJ77" s="100"/>
+      <c r="BK77" s="100"/>
+      <c r="BL77" s="100"/>
+      <c r="BM77" s="100"/>
+      <c r="BN77" s="100"/>
+      <c r="BO77" s="101"/>
       <c r="BP77" s="96" t="s">
         <v>214</v>
       </c>
@@ -24663,7 +24643,7 @@
       <c r="CG77" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH77" s="102" t="s">
+      <c r="CH77" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI77" s="55"/>
@@ -24701,7 +24681,7 @@
         <v>3</v>
       </c>
       <c r="R78" s="60"/>
-      <c r="S78" s="104" t="s">
+      <c r="S78" s="109" t="s">
         <v>220</v>
       </c>
       <c r="T78" s="97"/>
@@ -24709,7 +24689,7 @@
       <c r="V78" s="97"/>
       <c r="W78" s="97"/>
       <c r="X78" s="60"/>
-      <c r="Y78" s="104" t="s">
+      <c r="Y78" s="109" t="s">
         <v>221</v>
       </c>
       <c r="Z78" s="97"/>
@@ -24731,7 +24711,7 @@
       <c r="AP78" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ78" s="104" t="s">
+      <c r="AQ78" s="109" t="s">
         <v>170</v>
       </c>
       <c r="AR78" s="97"/>
@@ -24753,15 +24733,15 @@
       <c r="BF78" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="BG78" s="97"/>
-      <c r="BH78" s="97"/>
-      <c r="BI78" s="97"/>
-      <c r="BJ78" s="97"/>
-      <c r="BK78" s="97"/>
-      <c r="BL78" s="97"/>
-      <c r="BM78" s="97"/>
-      <c r="BN78" s="97"/>
-      <c r="BO78" s="60"/>
+      <c r="BG78" s="100"/>
+      <c r="BH78" s="100"/>
+      <c r="BI78" s="100"/>
+      <c r="BJ78" s="100"/>
+      <c r="BK78" s="100"/>
+      <c r="BL78" s="100"/>
+      <c r="BM78" s="100"/>
+      <c r="BN78" s="100"/>
+      <c r="BO78" s="101"/>
       <c r="BP78" s="96" t="s">
         <v>222</v>
       </c>
@@ -24788,7 +24768,7 @@
       <c r="CG78" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH78" s="102" t="s">
+      <c r="CH78" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI78" s="55"/>
@@ -24826,7 +24806,7 @@
         <v>3</v>
       </c>
       <c r="R79" s="60"/>
-      <c r="S79" s="104" t="s">
+      <c r="S79" s="109" t="s">
         <v>224</v>
       </c>
       <c r="T79" s="97"/>
@@ -24834,7 +24814,7 @@
       <c r="V79" s="97"/>
       <c r="W79" s="97"/>
       <c r="X79" s="60"/>
-      <c r="Y79" s="104" t="s">
+      <c r="Y79" s="109" t="s">
         <v>225</v>
       </c>
       <c r="Z79" s="97"/>
@@ -24856,7 +24836,7 @@
       <c r="AP79" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ79" s="104" t="s">
+      <c r="AQ79" s="109" t="s">
         <v>226</v>
       </c>
       <c r="AR79" s="97"/>
@@ -24878,15 +24858,15 @@
       <c r="BF79" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="BG79" s="97"/>
-      <c r="BH79" s="97"/>
-      <c r="BI79" s="97"/>
-      <c r="BJ79" s="97"/>
-      <c r="BK79" s="97"/>
-      <c r="BL79" s="97"/>
-      <c r="BM79" s="97"/>
-      <c r="BN79" s="97"/>
-      <c r="BO79" s="60"/>
+      <c r="BG79" s="100"/>
+      <c r="BH79" s="100"/>
+      <c r="BI79" s="100"/>
+      <c r="BJ79" s="100"/>
+      <c r="BK79" s="100"/>
+      <c r="BL79" s="100"/>
+      <c r="BM79" s="100"/>
+      <c r="BN79" s="100"/>
+      <c r="BO79" s="101"/>
       <c r="BP79" s="96" t="s">
         <v>214</v>
       </c>
@@ -24913,7 +24893,7 @@
       <c r="CG79" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH79" s="102" t="s">
+      <c r="CH79" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI79" s="55"/>
@@ -24951,7 +24931,7 @@
         <v>3</v>
       </c>
       <c r="R80" s="60"/>
-      <c r="S80" s="104" t="s">
+      <c r="S80" s="109" t="s">
         <v>229</v>
       </c>
       <c r="T80" s="97"/>
@@ -24959,7 +24939,7 @@
       <c r="V80" s="97"/>
       <c r="W80" s="97"/>
       <c r="X80" s="60"/>
-      <c r="Y80" s="104" t="s">
+      <c r="Y80" s="109" t="s">
         <v>230</v>
       </c>
       <c r="Z80" s="97"/>
@@ -24981,7 +24961,7 @@
       <c r="AP80" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ80" s="104" t="s">
+      <c r="AQ80" s="109" t="s">
         <v>170</v>
       </c>
       <c r="AR80" s="97"/>
@@ -25000,18 +24980,18 @@
       <c r="BC80" s="97"/>
       <c r="BD80" s="97"/>
       <c r="BE80" s="60"/>
-      <c r="BF80" s="100" t="s">
+      <c r="BF80" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="BG80" s="97"/>
-      <c r="BH80" s="97"/>
-      <c r="BI80" s="97"/>
-      <c r="BJ80" s="97"/>
-      <c r="BK80" s="97"/>
-      <c r="BL80" s="97"/>
-      <c r="BM80" s="97"/>
-      <c r="BN80" s="97"/>
-      <c r="BO80" s="60"/>
+      <c r="BG80" s="100"/>
+      <c r="BH80" s="100"/>
+      <c r="BI80" s="100"/>
+      <c r="BJ80" s="100"/>
+      <c r="BK80" s="100"/>
+      <c r="BL80" s="100"/>
+      <c r="BM80" s="100"/>
+      <c r="BN80" s="100"/>
+      <c r="BO80" s="101"/>
       <c r="BP80" s="96" t="s">
         <v>231</v>
       </c>
@@ -25038,7 +25018,7 @@
       <c r="CG80" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH80" s="102" t="s">
+      <c r="CH80" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI80" s="55"/>
@@ -25076,7 +25056,7 @@
         <v>3</v>
       </c>
       <c r="R81" s="60"/>
-      <c r="S81" s="104" t="s">
+      <c r="S81" s="109" t="s">
         <v>233</v>
       </c>
       <c r="T81" s="97"/>
@@ -25084,7 +25064,7 @@
       <c r="V81" s="97"/>
       <c r="W81" s="97"/>
       <c r="X81" s="60"/>
-      <c r="Y81" s="104" t="s">
+      <c r="Y81" s="109" t="s">
         <v>234</v>
       </c>
       <c r="Z81" s="97"/>
@@ -25106,7 +25086,7 @@
       <c r="AP81" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ81" s="104" t="s">
+      <c r="AQ81" s="109" t="s">
         <v>235</v>
       </c>
       <c r="AR81" s="97"/>
@@ -25128,15 +25108,15 @@
       <c r="BF81" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="BG81" s="97"/>
-      <c r="BH81" s="97"/>
-      <c r="BI81" s="97"/>
-      <c r="BJ81" s="97"/>
-      <c r="BK81" s="97"/>
-      <c r="BL81" s="97"/>
-      <c r="BM81" s="97"/>
-      <c r="BN81" s="97"/>
-      <c r="BO81" s="60"/>
+      <c r="BG81" s="100"/>
+      <c r="BH81" s="100"/>
+      <c r="BI81" s="100"/>
+      <c r="BJ81" s="100"/>
+      <c r="BK81" s="100"/>
+      <c r="BL81" s="100"/>
+      <c r="BM81" s="100"/>
+      <c r="BN81" s="100"/>
+      <c r="BO81" s="101"/>
       <c r="BP81" s="96" t="s">
         <v>237</v>
       </c>
@@ -25163,7 +25143,7 @@
       <c r="CG81" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH81" s="102" t="s">
+      <c r="CH81" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI81" s="55"/>
@@ -25201,7 +25181,7 @@
         <v>3</v>
       </c>
       <c r="R82" s="60"/>
-      <c r="S82" s="104" t="s">
+      <c r="S82" s="109" t="s">
         <v>239</v>
       </c>
       <c r="T82" s="97"/>
@@ -25209,7 +25189,7 @@
       <c r="V82" s="97"/>
       <c r="W82" s="97"/>
       <c r="X82" s="60"/>
-      <c r="Y82" s="104" t="s">
+      <c r="Y82" s="109" t="s">
         <v>240</v>
       </c>
       <c r="Z82" s="97"/>
@@ -25231,7 +25211,7 @@
       <c r="AP82" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AQ82" s="104" t="s">
+      <c r="AQ82" s="109" t="s">
         <v>241</v>
       </c>
       <c r="AR82" s="97"/>
@@ -25251,19 +25231,19 @@
       <c r="BD82" s="97"/>
       <c r="BE82" s="60"/>
       <c r="BF82" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG82" s="100"/>
+      <c r="BH82" s="100"/>
+      <c r="BI82" s="100"/>
+      <c r="BJ82" s="100"/>
+      <c r="BK82" s="100"/>
+      <c r="BL82" s="100"/>
+      <c r="BM82" s="100"/>
+      <c r="BN82" s="100"/>
+      <c r="BO82" s="101"/>
+      <c r="BP82" s="96" t="s">
         <v>242</v>
-      </c>
-      <c r="BG82" s="97"/>
-      <c r="BH82" s="97"/>
-      <c r="BI82" s="97"/>
-      <c r="BJ82" s="97"/>
-      <c r="BK82" s="97"/>
-      <c r="BL82" s="97"/>
-      <c r="BM82" s="97"/>
-      <c r="BN82" s="97"/>
-      <c r="BO82" s="60"/>
-      <c r="BP82" s="96" t="s">
-        <v>243</v>
       </c>
       <c r="BQ82" s="97"/>
       <c r="BR82" s="97"/>
@@ -25288,7 +25268,7 @@
       <c r="CG82" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CH82" s="102" t="s">
+      <c r="CH82" s="107" t="s">
         <v>77</v>
       </c>
       <c r="CI82" s="55"/>
@@ -25386,10 +25366,10 @@
     </row>
     <row r="84" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -25480,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="12"/>
@@ -25491,7 +25471,7 @@
         <v>4</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
@@ -25576,7 +25556,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="12"/>
@@ -25672,7 +25652,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="12"/>
@@ -25849,11 +25829,11 @@
     </row>
     <row r="89" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -25938,7 +25918,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="1"/>
@@ -26025,7 +26005,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="1"/>
@@ -26117,7 +26097,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="1"/>
@@ -26286,11 +26266,11 @@
     </row>
     <row r="94" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -26326,7 +26306,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="12"/>
@@ -26337,7 +26317,7 @@
         <v>4</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
@@ -26347,7 +26327,7 @@
         <v>7</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S95" s="13"/>
       <c r="T95" s="13"/>
@@ -26380,7 +26360,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="12"/>
@@ -26391,7 +26371,7 @@
         <v>5</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
@@ -26401,7 +26381,7 @@
         <v>8</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
@@ -26430,7 +26410,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="12"/>
@@ -26441,7 +26421,7 @@
         <v>6</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="5"/>
@@ -26451,7 +26431,7 @@
         <v>9</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
@@ -26525,7 +26505,7 @@
     </row>
     <row r="101" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -26559,7 +26539,7 @@
     </row>
     <row r="102" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -26585,7 +26565,7 @@
       <c r="W103" s="14"/>
       <c r="X103" s="14"/>
       <c r="Z103" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB103" s="14"/>
       <c r="AJ103" s="13"/>
@@ -26617,7 +26597,7 @@
       </c>
       <c r="AA104" s="35"/>
       <c r="AC104" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD104" s="19"/>
       <c r="AJ104" s="13"/>
@@ -26632,14 +26612,14 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="AK105" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO105" s="6"/>
       <c r="AP105" s="6"/>
     </row>
     <row r="106" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -26657,13 +26637,13 @@
       <c r="P106" s="55"/>
       <c r="Q106" s="56"/>
       <c r="AK106" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM106" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="AM106" s="37" t="s">
+      <c r="AO106" s="37" t="s">
         <v>271</v>
-      </c>
-      <c r="AO106" s="37" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="107" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27491,7 +27471,7 @@
       <c r="G306" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A46:CJ82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A46:CJ46" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -27559,11 +27539,7 @@
     <filterColumn colId="78" showButton="0"/>
     <filterColumn colId="79" showButton="0"/>
     <filterColumn colId="80" showButton="0"/>
-    <filterColumn colId="85" showButton="0">
-      <filters>
-        <filter val="CONFORME"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="85" showButton="0"/>
     <filterColumn colId="86" showButton="0"/>
   </autoFilter>
   <mergeCells count="576">
